--- a/artfynd/A 12522-2020.xlsx
+++ b/artfynd/A 12522-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91820391</v>
+        <v>91820377</v>
       </c>
       <c r="B2" t="n">
-        <v>78503</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6456</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>792447.929428296</v>
+        <v>792384.9250397275</v>
       </c>
       <c r="R2" t="n">
-        <v>7354525.833729008</v>
+        <v>7354586.848309446</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91820347</v>
+        <v>91820374</v>
       </c>
       <c r="B3" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>792501.2096894301</v>
+        <v>792384.1932845772</v>
       </c>
       <c r="R3" t="n">
-        <v>7354565.988424786</v>
+        <v>7354578.223190884</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91820325</v>
+        <v>91820376</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>792453.9552827136</v>
+        <v>792389.2480045473</v>
       </c>
       <c r="R4" t="n">
-        <v>7354651.845769764</v>
+        <v>7354564.908565938</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91820354</v>
+        <v>91820391</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>78503</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6456</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>792558.2461457669</v>
+        <v>792447.929428296</v>
       </c>
       <c r="R5" t="n">
-        <v>7354663.934873462</v>
+        <v>7354525.833729008</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91820377</v>
+        <v>91820347</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>792384.9250397275</v>
+        <v>792501.2096894301</v>
       </c>
       <c r="R6" t="n">
-        <v>7354586.848309446</v>
+        <v>7354565.988424786</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91820374</v>
+        <v>91820325</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>792384.1932845772</v>
+        <v>792453.9552827136</v>
       </c>
       <c r="R7" t="n">
-        <v>7354578.223190884</v>
+        <v>7354651.845769764</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91820321</v>
+        <v>91820354</v>
       </c>
       <c r="B8" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>792498.060890534</v>
+        <v>792558.2461457669</v>
       </c>
       <c r="R8" t="n">
-        <v>7354686.158366068</v>
+        <v>7354663.934873462</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91820352</v>
+        <v>91820321</v>
       </c>
       <c r="B9" t="n">
         <v>78569</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>792451.0675179539</v>
+        <v>792498.060890534</v>
       </c>
       <c r="R9" t="n">
-        <v>7354667.828167814</v>
+        <v>7354686.158366068</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91820382</v>
+        <v>91820352</v>
       </c>
       <c r="B10" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>792439.9662732746</v>
+        <v>792451.0675179539</v>
       </c>
       <c r="R10" t="n">
-        <v>7354520.118926036</v>
+        <v>7354667.828167814</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91820367</v>
+        <v>91820382</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>792462.0294626241</v>
+        <v>792439.9662732746</v>
       </c>
       <c r="R11" t="n">
-        <v>7354500.026836612</v>
+        <v>7354520.118926036</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91820383</v>
+        <v>91820367</v>
       </c>
       <c r="B12" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>792405.1790341048</v>
+        <v>792462.0294626241</v>
       </c>
       <c r="R12" t="n">
-        <v>7354544.991983407</v>
+        <v>7354500.026836612</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91820369</v>
+        <v>91820383</v>
       </c>
       <c r="B13" t="n">
-        <v>78472</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>388</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>792412.1402423121</v>
+        <v>792405.1790341048</v>
       </c>
       <c r="R13" t="n">
-        <v>7354529.026110045</v>
+        <v>7354544.991983407</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91820376</v>
+        <v>91820369</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>78472</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>388</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>792389.2480045473</v>
+        <v>792412.1402423121</v>
       </c>
       <c r="R14" t="n">
-        <v>7354564.908565938</v>
+        <v>7354529.026110045</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 12522-2020.xlsx
+++ b/artfynd/A 12522-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91820377</v>
+        <v>91820391</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>78503</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6456</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>792384.9250397275</v>
+        <v>792447.929428296</v>
       </c>
       <c r="R2" t="n">
-        <v>7354586.848309446</v>
+        <v>7354525.833729008</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91820374</v>
+        <v>91820347</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>792384.1932845772</v>
+        <v>792501.2096894301</v>
       </c>
       <c r="R3" t="n">
-        <v>7354578.223190884</v>
+        <v>7354565.988424786</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91820376</v>
+        <v>91820325</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>792389.2480045473</v>
+        <v>792453.9552827136</v>
       </c>
       <c r="R4" t="n">
-        <v>7354564.908565938</v>
+        <v>7354651.845769764</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91820391</v>
+        <v>91820354</v>
       </c>
       <c r="B5" t="n">
-        <v>78503</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6456</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>792447.929428296</v>
+        <v>792558.2461457669</v>
       </c>
       <c r="R5" t="n">
-        <v>7354525.833729008</v>
+        <v>7354663.934873462</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>91820347</v>
+        <v>91820377</v>
       </c>
       <c r="B6" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,21 +1144,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>792501.2096894301</v>
+        <v>792384.9250397275</v>
       </c>
       <c r="R6" t="n">
-        <v>7354565.988424786</v>
+        <v>7354586.848309446</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>91820325</v>
+        <v>91820374</v>
       </c>
       <c r="B7" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1256,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>792453.9552827136</v>
+        <v>792384.1932845772</v>
       </c>
       <c r="R7" t="n">
-        <v>7354651.845769764</v>
+        <v>7354578.223190884</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>91820354</v>
+        <v>91820321</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1368,21 +1368,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1392,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>792558.2461457669</v>
+        <v>792498.060890534</v>
       </c>
       <c r="R8" t="n">
-        <v>7354663.934873462</v>
+        <v>7354686.158366068</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91820321</v>
+        <v>91820352</v>
       </c>
       <c r="B9" t="n">
         <v>78569</v>
@@ -1504,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>792498.060890534</v>
+        <v>792451.0675179539</v>
       </c>
       <c r="R9" t="n">
-        <v>7354686.158366068</v>
+        <v>7354667.828167814</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91820352</v>
+        <v>91820382</v>
       </c>
       <c r="B10" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1588,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>792451.0675179539</v>
+        <v>792439.9662732746</v>
       </c>
       <c r="R10" t="n">
-        <v>7354667.828167814</v>
+        <v>7354520.118926036</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>91820382</v>
+        <v>91820367</v>
       </c>
       <c r="B11" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1700,25 +1700,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1728,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>792439.9662732746</v>
+        <v>792462.0294626241</v>
       </c>
       <c r="R11" t="n">
-        <v>7354520.118926036</v>
+        <v>7354500.026836612</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>91820367</v>
+        <v>91820383</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1816,21 +1816,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1840,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>792462.0294626241</v>
+        <v>792405.1790341048</v>
       </c>
       <c r="R12" t="n">
-        <v>7354500.026836612</v>
+        <v>7354544.991983407</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1912,10 +1912,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91820383</v>
+        <v>91820369</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>78472</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1928,21 +1928,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>388</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>792405.1790341048</v>
+        <v>792412.1402423121</v>
       </c>
       <c r="R13" t="n">
-        <v>7354544.991983407</v>
+        <v>7354529.026110045</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91820369</v>
+        <v>91820376</v>
       </c>
       <c r="B14" t="n">
-        <v>78472</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>388</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>792412.1402423121</v>
+        <v>792389.2480045473</v>
       </c>
       <c r="R14" t="n">
-        <v>7354529.026110045</v>
+        <v>7354564.908565938</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
